--- a/xlsx/country_comparison/irt_pol_mean.xlsx
+++ b/xlsx/country_comparison/irt_pol_mean.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">$ bold('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -453,289 +450,268 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0000000000000000207307241950892</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.32337736438822</v>
+        <v>-0.00479380738311511</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00479380738311511</v>
+        <v>0.640296429737674</v>
       </c>
       <c r="E2" t="n">
-        <v>0.640296429737674</v>
+        <v>0.0295838698844966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0295838698844966</v>
+        <v>-0.446769496365513</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.446769496365513</v>
+        <v>-0.324653761448707</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.324653761448707</v>
+        <v>-0.00971321342612188</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00971321342612188</v>
+        <v>-0.204973671359045</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.204973671359045</v>
+        <v>0.486987142752865</v>
       </c>
       <c r="K2" t="n">
-        <v>0.486987142752865</v>
+        <v>0.571811989279173</v>
       </c>
       <c r="L2" t="n">
-        <v>0.571811989279173</v>
+        <v>-0.108089558712261</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.108089558712261</v>
+        <v>0.438377982535614</v>
       </c>
       <c r="N2" t="n">
-        <v>0.438377982535614</v>
-      </c>
-      <c r="O2" t="n">
         <v>-0.704736688706144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0296065191244925</v>
+        <v>-0.0295338737419411</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.326776999867881</v>
+        <v>-0.0414660776677929</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0415393781268664</v>
+        <v>0.596211924175287</v>
       </c>
       <c r="E3" t="n">
-        <v>0.596138062861806</v>
+        <v>-0.00369434300562403</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00376739608349137</v>
+        <v>-0.441955816033214</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.442028306946151</v>
+        <v>-0.378627807377725</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.378701495524511</v>
+        <v>-0.0870043934952584</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.087079592912323</v>
+        <v>-0.255060925679314</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.255134529911622</v>
+        <v>0.4664702667051</v>
       </c>
       <c r="K3" t="n">
-        <v>0.466395763977566</v>
+        <v>0.566057797423066</v>
       </c>
       <c r="L3" t="n">
-        <v>0.565984285264232</v>
+        <v>-0.14446620617541</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.144540201712551</v>
+        <v>0.39121580949258</v>
       </c>
       <c r="N3" t="n">
-        <v>0.391142683937732</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.708774973216829</v>
+        <v>-0.708709397202916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.507215782676892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.507499635474993</v>
+        <v>0.492890445186176</v>
       </c>
       <c r="D4" t="n">
-        <v>0.492890445186176</v>
+        <v>0.715811632508023</v>
       </c>
       <c r="E4" t="n">
-        <v>0.715811632508023</v>
+        <v>0.559584947755445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.559584947755445</v>
+        <v>0.419065522758359</v>
       </c>
       <c r="G4" t="n">
-        <v>0.419065522758359</v>
+        <v>0.290330193094689</v>
       </c>
       <c r="H4" t="n">
-        <v>0.290330193094689</v>
+        <v>0.460622594845188</v>
       </c>
       <c r="I4" t="n">
-        <v>0.460622594845188</v>
+        <v>0.408278307448508</v>
       </c>
       <c r="J4" t="n">
-        <v>0.408278307448508</v>
+        <v>0.637895863088784</v>
       </c>
       <c r="K4" t="n">
-        <v>0.637895863088784</v>
+        <v>0.677857210161869</v>
       </c>
       <c r="L4" t="n">
-        <v>0.677857210161869</v>
+        <v>0.416039152674134</v>
       </c>
       <c r="M4" t="n">
-        <v>0.416039152674134</v>
+        <v>0.642645720932872</v>
       </c>
       <c r="N4" t="n">
-        <v>0.642645720932872</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.35032428907139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.205874364878658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.318796578255686</v>
+        <v>0.207968144403421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.207968144403421</v>
+        <v>0.111147418681254</v>
       </c>
       <c r="E5" t="n">
-        <v>0.111147418681254</v>
+        <v>0.210280982947928</v>
       </c>
       <c r="F5" t="n">
-        <v>0.210280982947928</v>
+        <v>0.339532821058458</v>
       </c>
       <c r="G5" t="n">
-        <v>0.339532821058458</v>
+        <v>0.159837135286686</v>
       </c>
       <c r="H5" t="n">
-        <v>0.159837135286686</v>
+        <v>0.155837275001755</v>
       </c>
       <c r="I5" t="n">
-        <v>0.155837275001755</v>
+        <v>0.198092526057305</v>
       </c>
       <c r="J5" t="n">
-        <v>0.198092526057305</v>
+        <v>0.142379895004253</v>
       </c>
       <c r="K5" t="n">
-        <v>0.142379895004253</v>
+        <v>0.129015106760433</v>
       </c>
       <c r="L5" t="n">
-        <v>0.129015106760433</v>
+        <v>0.187140912849433</v>
       </c>
       <c r="M5" t="n">
-        <v>0.187140912849433</v>
+        <v>0.114159573291523</v>
       </c>
       <c r="N5" t="n">
-        <v>0.114159573291523</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.387610418791745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.301341417798234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.188703057219307</v>
+        <v>0.284922300782756</v>
       </c>
       <c r="D6" t="n">
-        <v>0.284922300782756</v>
+        <v>0.604664213826769</v>
       </c>
       <c r="E6" t="n">
-        <v>0.604664213826769</v>
+        <v>0.349303964807517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.349303964807517</v>
+        <v>0.0795327016999014</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0795327016999014</v>
+        <v>0.130493057808003</v>
       </c>
       <c r="H6" t="n">
-        <v>0.130493057808003</v>
+        <v>0.304785319843432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.304785319843432</v>
+        <v>0.210185781391204</v>
       </c>
       <c r="J6" t="n">
-        <v>0.210185781391204</v>
+        <v>0.495515968084531</v>
       </c>
       <c r="K6" t="n">
-        <v>0.495515968084531</v>
+        <v>0.548842103401436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.548842103401436</v>
+        <v>0.228898239824701</v>
       </c>
       <c r="M6" t="n">
-        <v>0.228898239824701</v>
+        <v>0.528486147641348</v>
       </c>
       <c r="N6" t="n">
-        <v>0.528486147641348</v>
-      </c>
-      <c r="O6" t="n">
         <v>-0.037286129720355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.701230168762265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.609957466146479</v>
+        <v>0.695473828536504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.695473828536504</v>
+        <v>0.854074584958808</v>
       </c>
       <c r="E7" t="n">
-        <v>0.854074584958808</v>
+        <v>0.714374100073087</v>
       </c>
       <c r="F7" t="n">
-        <v>0.714374100073087</v>
+        <v>0.55310483438845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.55310483438845</v>
+        <v>0.660286391941989</v>
       </c>
       <c r="H7" t="n">
-        <v>0.660286391941989</v>
+        <v>0.733776809595765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.733776809595765</v>
+        <v>0.664312731630437</v>
       </c>
       <c r="J7" t="n">
-        <v>0.664312731630437</v>
+        <v>0.798467109724214</v>
       </c>
       <c r="K7" t="n">
-        <v>0.798467109724214</v>
+        <v>0.819496695865989</v>
       </c>
       <c r="L7" t="n">
-        <v>0.819496695865989</v>
+        <v>0.678859563974807</v>
       </c>
       <c r="M7" t="n">
-        <v>0.678859563974807</v>
+        <v>0.836825798954328</v>
       </c>
       <c r="N7" t="n">
-        <v>0.836825798954328</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.494320024311072</v>
       </c>
     </row>
